--- a/trans.xlsx
+++ b/trans.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="131">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -420,6 +420,77 @@
   </si>
   <si>
     <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAXACC</t>
+  </si>
+  <si>
+    <t>MAXOPR</t>
+  </si>
+  <si>
+    <t>查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUFWA7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORGID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加一并返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUFWA7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUFWA7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加一并返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUFWA1</t>
+  </si>
+  <si>
+    <t>CUFWA1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAXSUB</t>
+  </si>
+  <si>
+    <t>查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUFWA0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUFWA0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUSACC</t>
+  </si>
+  <si>
+    <t>查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLAG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -486,10 +557,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -794,10 +866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E259"/>
+  <dimension ref="A1:E268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="E259" sqref="E259"/>
+    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
+      <selection activeCell="E268" sqref="A260:E268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3440,6 +3512,151 @@
       </c>
       <c r="E259" s="1"/>
     </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A260" s="1">
+        <v>100062</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A261" s="1">
+        <v>100061</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A262" s="1">
+        <v>100060</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A263" s="1">
+        <v>100059</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A264" s="1">
+        <v>100058</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A265" s="1">
+        <v>100057</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A266" s="3">
+        <v>100056</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E266" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A267" s="3">
+        <v>100055</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E267" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A268" s="1"/>
+      <c r="B268" s="1"/>
+      <c r="C268" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D268" s="1"/>
+      <c r="E268" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
